--- a/Excel/시간표.xlsx
+++ b/Excel/시간표.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.123.46490"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1245,7 +1245,7 @@
   <dimension ref="A1:X44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="P33" s="10" t="s">
         <v>79</v>
